--- a/src/main/resources/request/RequestList.xlsx
+++ b/src/main/resources/request/RequestList.xlsx
@@ -99,7 +99,7 @@
   <si>
     <t xml:space="preserve">SELECT DISTINCT   ?dataset ?process ?softwarename ?inputct ?kvpvalue ?kvpunitlabel ?useofxraymodvalue
 	WHERE {
-?dataset rdf:type dcm:128487 .	 # 3D dose map
+?dataset rdf:type dcm:128487 .
 ?process ontomedirad:has_specified_output ?dataset .
 ?process rdf:type ontomedirad:calculation_of_a_3D_dose_map .
 ?process ontomedirad:has_specified_input ?inputct .
@@ -149,7 +149,7 @@
   <si>
     <t xml:space="preserve">SELECT  ?dataset ?filename  ?voiclass ?matentity ?matentityclasslabel ?processclass ?date ?time
 	WHERE {
-?dataset rdf:type ?voiclass .  # subclass of VOI
+?dataset rdf:type ?voiclass . 
 ?dataset ontomedirad:has_name ?filename .
 ?voiclass rdfs:subClassOf* ontomedirad:VOI  .
 ?dataset ontomedirad:represents ?matentity .
@@ -327,7 +327,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A9"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/resources/request/RequestList.xlsx
+++ b/src/main/resources/request/RequestList.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">List CT datasets and IRDBB WADO handles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT datasets and handles</t>
+  </si>
   <si>
     <t xml:space="preserve">Request1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List CT datasets and IRDBB WADO handles</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT DISTINCT   ?dataset ?handle
@@ -35,14 +38,16 @@
 } ORDER BY ?datase</t>
   </si>
   <si>
+    <t xml:space="preserve">List CT datasets, CT model &amp; manufacturer and main protocol settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT datasets and acquisition settings</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request2</t>
   </si>
   <si>
-    <t xml:space="preserve">List CT datasets, CT model &amp; manufacturer and main protocol settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-SELECT DISTINCT ?dataset ?model ?manufacturer ?kvpvalue ?kvpunitlabel ?tubecurrentvalue ?tubecurrentunitlabel ?exptimevalue ?exptimeunitlabel ?useofxraymodvalue
+    <t xml:space="preserve"> SELECT DISTINCT ?dataset ?model ?manufacturer ?kvpvalue ?kvpunitlabel ?tubecurrentvalue ?tubecurrentunitlabel ?exptimevalue ?exptimeunitlabel ?useofxraymodvalue
 	WHERE {
 ?dataset rdf:type ontomedirad:CT_image_dataset .
 ?dataset ontomedirad:is_specified_output_of ?ctacq .
@@ -76,10 +81,13 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">List patients with demographic characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients and demographic data</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List patients with demographic characteristics</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT  DISTINCT ?human ?id ?sex ?birthdate 
@@ -91,10 +99,13 @@
 } </t>
   </si>
   <si>
+    <t xml:space="preserve">List 3D_dose_maps, from which CT data it was obtained, with what method and what main settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D Dose Maps and provenance data</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List 3D_dose_maps, from which CT data it was obtained, with what method and what main settings</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT DISTINCT   ?dataset ?process ?softwarename ?inputct ?kvpvalue ?kvpunitlabel ?useofxraymodvalue
@@ -118,11 +129,13 @@
 } ORDER BY ?dataset</t>
   </si>
   <si>
+    <t xml:space="preserve">List data processing steps, date and time, class of processing and responsible institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing steps</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List data processing steps, date and time, class of processing and responsible institution
-</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT DISTINCT ?process ?date ?time ?processclass ?labelclassroleinstitut ?nameinstitut
@@ -141,10 +154,13 @@
 } ORDER BY ?process</t>
   </si>
   <si>
+    <t xml:space="preserve">List Volumes of Interest (VOI), related segmented entity (e.g. organ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumes Of Interest and organs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Volumes of Interest (VOI), related segmented entity (e.g. organ)</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT  ?dataset ?filename  ?voiclass ?matentity ?matentityclasslabel ?processclass ?date ?time
@@ -164,10 +180,13 @@
 } ORDER BY ?matentity</t>
   </si>
   <si>
+    <t xml:space="preserve">List Mean absorbed doses (value and unit of measurement), and concerned organ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean absorbed doses in organs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Mean absorbed doses (value and unit of measurement), and concerned organ</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT  DISTINCT ?patientid ?classdoselabel ?processclass ?value ?unitclasslabel ?matentity ?matentityclasslabel
@@ -190,10 +209,13 @@
 } ORDER BY ?dose </t>
   </si>
   <si>
+    <t xml:space="preserve">List Clinical research studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical research studies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Clinical research studies</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT DISTINCT   ?study ?id ?name ?description
@@ -205,10 +227,13 @@
 } </t>
   </si>
   <si>
+    <t xml:space="preserve">List Non-DICOM Files and handles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non DICOM datasets and handles</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Non-DICOM Files and handles </t>
   </si>
   <si>
     <t xml:space="preserve">SELECT  DISTINCT ?patientid ?dataset ?datasetclasslabel ?fhirhandle
@@ -229,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -250,6 +275,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,17 +326,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -324,117 +360,146 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="115.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="37.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="115.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="54.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="54.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="351.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="351.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="86.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="75.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="202.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="203.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="149.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="160.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="160.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="192.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="76.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="75.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="97.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="96.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
